--- a/Delegação de tarefas.xlsx
+++ b/Delegação de tarefas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Mashacraft-Cowork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924586A7-8997-4F24-9E4E-D14A88F181BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE82370-43B7-4A65-A6F9-4BA8E22AC51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0D77ED99-7B12-4DA5-B20A-FD9B4E21C810}"/>
   </bookViews>
@@ -257,15 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +274,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,345 +601,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96989A92-F36A-4A00-9787-BF7F349B820D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="A9:E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D23">
@@ -995,49 +995,49 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <f>COUNTIF(Planilha1!$D$1:$D$137,Planilha2!A3)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <f>COUNTIF(Planilha1!$A$4:$A$123,Planilha2!D3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <f>COUNTIF(Planilha1!$D$1:$D$137,Planilha2!A4)</f>
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f>COUNTIF(Planilha1!$A$4:$A$123,Planilha2!D4)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <f>COUNTIF(Planilha1!$D$1:$D$137,Planilha2!A5)</f>
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f>COUNTIF(Planilha1!$A$4:$A$123,Planilha2!D5)</f>
         <v>1</v>
       </c>

--- a/Delegação de tarefas.xlsx
+++ b/Delegação de tarefas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Mashacraft-Cowork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE82370-43B7-4A65-A6F9-4BA8E22AC51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC39465-90B0-41B1-9F55-F40932219C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0D77ED99-7B12-4DA5-B20A-FD9B4E21C810}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Prioridade 
 de execução</t>
@@ -132,9 +132,6 @@
     <t>Contratacao Helper</t>
   </si>
   <si>
-    <t>Indicação: Doolah.</t>
-  </si>
-  <si>
     <t>Blaze spawner</t>
   </si>
   <si>
@@ -193,14 +190,31 @@
   </si>
   <si>
     <t>Tarefas</t>
+  </si>
+  <si>
+    <t>entrar lá e promover o Doolah.</t>
+  </si>
+  <si>
+    <t>Motivo é o simpleclans, desativei a extensão, procurar outro pl
+ de clans, visto que esse por inúmeras vezes se mostrou
+ incompatível. Alto risco de crashar o servidor, o console ficou
+ dando 20 minutos de erro após o server estar off, talvez isto seja responsavel pelo erro de kick e até outros.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,11 +259,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,14 +299,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,16 +638,16 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A10:D11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +661,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,18 +672,17 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -654,27 +692,27 @@
         <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -684,12 +722,12 @@
         <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -699,12 +737,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -714,12 +752,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -729,12 +767,12 @@
         <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -744,12 +782,12 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -759,12 +797,14 @@
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -774,27 +814,27 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -804,27 +844,27 @@
         <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="15">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="15">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -834,42 +874,42 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="15">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="15">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -882,22 +922,22 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="15">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="15">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -907,12 +947,12 @@
         <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="15">
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -922,22 +962,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="15">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -946,13 +986,15 @@
     <sortCondition ref="A4:A23"/>
     <sortCondition ref="D4:D23"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -980,27 +1022,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6">
         <f>COUNTIF(Planilha1!$D$1:$D$137,Planilha2!A3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1012,11 +1054,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6">
         <f>COUNTIF(Planilha1!$D$1:$D$137,Planilha2!A4)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1028,7 +1070,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <f>COUNTIF(Planilha1!$D$1:$D$137,Planilha2!A5)</f>
